--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H2">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>40.56509941058634</v>
+        <v>0.07420203976599998</v>
       </c>
       <c r="R2">
-        <v>365.085894695277</v>
+        <v>0.6678183578939999</v>
       </c>
       <c r="S2">
-        <v>0.008132794626195679</v>
+        <v>4.21059766703438E-05</v>
       </c>
       <c r="T2">
-        <v>0.008132794626195681</v>
+        <v>4.210597667034379E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H3">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>0.2462080066797778</v>
+        <v>0.4431991372839999</v>
       </c>
       <c r="R3">
-        <v>2.215872060118</v>
+        <v>3.988792235555999</v>
       </c>
       <c r="S3">
-        <v>4.93616232363796E-05</v>
+        <v>0.0002514935248902333</v>
       </c>
       <c r="T3">
-        <v>4.936162323637961E-05</v>
+        <v>0.0002514935248902333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H4">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.013515180561</v>
+        <v>0.009407642849999998</v>
       </c>
       <c r="R4">
-        <v>0.121636625049</v>
+        <v>0.08466878564999999</v>
       </c>
       <c r="S4">
-        <v>2.709624515547967E-06</v>
+        <v>5.338370637979836E-06</v>
       </c>
       <c r="T4">
-        <v>2.709624515547968E-06</v>
+        <v>5.338370637979836E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H5">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>67.839664585527</v>
+        <v>66.85982083319399</v>
       </c>
       <c r="R5">
-        <v>610.556981269743</v>
+        <v>601.738387498746</v>
       </c>
       <c r="S5">
-        <v>0.01360100351288937</v>
+        <v>0.0379396316471044</v>
       </c>
       <c r="T5">
-        <v>0.01360100351288937</v>
+        <v>0.03793963164710439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I6">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J6">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>1750.977299992114</v>
+        <v>1.779291405049222</v>
       </c>
       <c r="R6">
-        <v>15758.79569992903</v>
+        <v>16.013622645443</v>
       </c>
       <c r="S6">
-        <v>0.3510490294090136</v>
+        <v>0.001009659608105197</v>
       </c>
       <c r="T6">
-        <v>0.3510490294090137</v>
+        <v>0.001009659608105197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I7">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J7">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>10.62747625512022</v>
@@ -883,10 +883,10 @@
         <v>95.64728629608202</v>
       </c>
       <c r="S7">
-        <v>0.002130675951335346</v>
+        <v>0.006030565583828654</v>
       </c>
       <c r="T7">
-        <v>0.002130675951335347</v>
+        <v>0.006030565583828654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I8">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J8">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.5833776993390001</v>
+        <v>0.225585955825</v>
       </c>
       <c r="R8">
-        <v>5.250399294051001</v>
+        <v>2.030273602425</v>
       </c>
       <c r="S8">
-        <v>0.0001169599258269891</v>
+        <v>0.0001280088394211093</v>
       </c>
       <c r="T8">
-        <v>0.0001169599258269892</v>
+        <v>0.0001280088394211092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I9">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J9">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>2928.273675013773</v>
+        <v>1603.232268638293</v>
       </c>
       <c r="R9">
-        <v>26354.46307512396</v>
+        <v>14429.09041774464</v>
       </c>
       <c r="S9">
-        <v>0.5870822148649101</v>
+        <v>0.9097547818538272</v>
       </c>
       <c r="T9">
-        <v>0.5870822148649103</v>
+        <v>0.9097547818538271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H10">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I10">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J10">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>65.199899332953</v>
+        <v>0.08318513199377778</v>
       </c>
       <c r="R10">
-        <v>586.799093996577</v>
+        <v>0.748666187944</v>
       </c>
       <c r="S10">
-        <v>0.0130717636250919</v>
+        <v>4.720343589064507E-05</v>
       </c>
       <c r="T10">
-        <v>0.0130717636250919</v>
+        <v>4.720343589064505E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H11">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I11">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J11">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.395727792702</v>
+        <v>0.4968539793617777</v>
       </c>
       <c r="R11">
-        <v>3.561550134317999</v>
+        <v>4.471685814255999</v>
       </c>
       <c r="S11">
-        <v>7.933846860198251E-05</v>
+        <v>0.0002819399861452387</v>
       </c>
       <c r="T11">
-        <v>7.933846860198253E-05</v>
+        <v>0.0002819399861452387</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H12">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I12">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J12">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.021722821461</v>
+        <v>0.0105465566</v>
       </c>
       <c r="R12">
-        <v>0.195505393149</v>
+        <v>0.0949190094</v>
       </c>
       <c r="S12">
-        <v>4.355153770379368E-06</v>
+        <v>5.984647693681575E-06</v>
       </c>
       <c r="T12">
-        <v>4.355153770379369E-06</v>
+        <v>5.984647693681574E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H13">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I13">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J13">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>109.038049111827</v>
+        <v>74.954044910744</v>
       </c>
       <c r="R13">
-        <v>981.3424420064428</v>
+        <v>674.586404196696</v>
       </c>
       <c r="S13">
-        <v>0.02186076387713971</v>
+        <v>0.04253270228570995</v>
       </c>
       <c r="T13">
-        <v>0.02186076387713971</v>
+        <v>0.04253270228570994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H14">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>5.249008120146001</v>
+        <v>0.003823923645222222</v>
       </c>
       <c r="R14">
-        <v>47.24107308131401</v>
+        <v>0.034415312807</v>
       </c>
       <c r="S14">
-        <v>0.001052360419490066</v>
+        <v>2.169886977536689E-06</v>
       </c>
       <c r="T14">
-        <v>0.001052360419490067</v>
+        <v>2.169886977536688E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H15">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>0.031858613564</v>
+        <v>0.02283979882422222</v>
       </c>
       <c r="R15">
-        <v>0.2867275220760001</v>
+        <v>0.205558189418</v>
       </c>
       <c r="S15">
-        <v>6.387253204258793E-06</v>
+        <v>1.296045283230478E-05</v>
       </c>
       <c r="T15">
-        <v>6.387253204258794E-06</v>
+        <v>1.296045283230478E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H16">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.001748825802</v>
+        <v>0.0004848129249999999</v>
       </c>
       <c r="R16">
-        <v>0.015739432218</v>
+        <v>0.004363316325</v>
       </c>
       <c r="S16">
-        <v>3.506176809946679E-07</v>
+        <v>2.751072851084181E-07</v>
       </c>
       <c r="T16">
-        <v>3.50617680994668E-07</v>
+        <v>2.75107285108418E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H17">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>8.778259031814001</v>
+        <v>3.445550157457</v>
       </c>
       <c r="R17">
-        <v>79.00433128632601</v>
+        <v>31.009951417113</v>
       </c>
       <c r="S17">
-        <v>0.001759931047097579</v>
+        <v>0.001955178792980566</v>
       </c>
       <c r="T17">
-        <v>0.001759931047097579</v>
+        <v>0.001955178792980566</v>
       </c>
     </row>
   </sheetData>
